--- a/_resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13065" activeTab="9"/>
+    <workbookView xWindow="4140" yWindow="0" windowWidth="26310" windowHeight="13065" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="frame" sheetId="9" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <sheet name="mail" sheetId="10" r:id="rId8"/>
     <sheet name="team" sheetId="11" r:id="rId9"/>
     <sheet name="drop" sheetId="12" r:id="rId10"/>
+    <sheet name="pay" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -181,6 +182,132 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>刘小兵(橘右京)</author>
+    <author>lori</author>
+    <author>PCC</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>key=Id     列表字段主键( 不填的话, 表示没有key, 用0代替 )
+channel=0   是否区分渠道, 默认不区分
+repeat=1  表示字段id可以重复
+cpp=xxxx cpp生成的类名( 不填表示不生成 )
+lua=xxxx lua生成的类名
+c#=xxx c#生成的类名
+xml=xxxx 生成的xml文件名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lori:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数组和集合 有效
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+PCC:
+0 不操作
+1 保存数据库
+2 删除数据库
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>刘小兵(橘右京):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位: ms</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>刘小兵(橘右京)</author>
@@ -1363,7 +1490,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="339">
   <si>
     <t>类名称</t>
   </si>
@@ -1964,111 +2091,40 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>任务链列表( 服务器添加任务链使用 )</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskchain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskChain</t>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>任务链id</t>
+  </si>
+  <si>
+    <t>chain</t>
   </si>
   <si>
     <t>任务链</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新任务链列表( 服务器使用 )</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskrefresh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskRefresh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新任务链</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务链id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskChain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>任务链序号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskChain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>order</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新任务链id</t>
-  </si>
-  <si>
-    <t>刷新任务链 刷新时间</t>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务id</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>前置条件列表</t>
-  </si>
-  <si>
-    <t>preconditions</t>
-  </si>
-  <si>
-    <t>任务链id</t>
-  </si>
-  <si>
-    <t>chain</t>
-  </si>
-  <si>
-    <t>任务链</t>
-  </si>
-  <si>
-    <t>任务链序号</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>序号</t>
   </si>
   <si>
     <t>任务结束时间( 0 表示不是时限任务, 分未接取和接取两种时间 )</t>
@@ -2081,12 +2137,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>刷新id</t>
-  </si>
-  <si>
-    <t>refresh</t>
   </si>
   <si>
     <t>xml=storeclass</t>
@@ -2788,11 +2838,23 @@
     <t>KeyValue</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值纪录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml=payclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2882,6 +2944,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3016,7 +3079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3078,12 +3141,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3480,17 +3537,19 @@
   <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -3973,86 +4032,86 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="26" t="s">
+    <row r="8" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>1</v>
-      </c>
-      <c r="R8" s="26">
-        <v>0</v>
-      </c>
-      <c r="S8" s="26">
+      <c r="P8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>1</v>
+      </c>
+      <c r="R8" s="24">
+        <v>0</v>
+      </c>
+      <c r="S8" s="24">
         <v>60000</v>
       </c>
-      <c r="T8" s="26">
-        <v>1</v>
-      </c>
-      <c r="U8" s="26">
-        <v>1</v>
-      </c>
-      <c r="V8" s="26">
-        <v>1</v>
-      </c>
-      <c r="W8" s="26">
-        <v>0</v>
-      </c>
-      <c r="X8" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="26">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T8" s="24">
+        <v>1</v>
+      </c>
+      <c r="U8" s="24">
+        <v>1</v>
+      </c>
+      <c r="V8" s="24">
+        <v>1</v>
+      </c>
+      <c r="W8" s="24">
+        <v>0</v>
+      </c>
+      <c r="X8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -4136,7 +4195,7 @@
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
     </row>
-    <row r="10" spans="1:38" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>144</v>
       </c>
@@ -4228,13 +4287,13 @@
     </row>
     <row r="11" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
@@ -4299,13 +4358,13 @@
     </row>
     <row r="12" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>126</v>
@@ -4370,13 +4429,13 @@
     </row>
     <row r="13" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>36</v>
@@ -4441,13 +4500,13 @@
     </row>
     <row r="14" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>126</v>
@@ -4512,13 +4571,13 @@
     </row>
     <row r="15" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>126</v>
@@ -4583,13 +4642,13 @@
     </row>
     <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>126</v>
@@ -4654,13 +4713,13 @@
     </row>
     <row r="17" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>126</v>
@@ -4725,13 +4784,13 @@
     </row>
     <row r="18" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>126</v>
@@ -4796,19 +4855,19 @@
     </row>
     <row r="19" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>26</v>
@@ -4879,7 +4938,7 @@
     </row>
     <row r="20" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>27</v>
@@ -4891,7 +4950,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>26</v>
@@ -4962,19 +5021,19 @@
     </row>
     <row r="21" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -5036,19 +5095,19 @@
     </row>
     <row r="22" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="P22" s="4">
         <v>0</v>
@@ -5110,10 +5169,10 @@
     </row>
     <row r="23" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>26</v>
@@ -5196,13 +5255,13 @@
     </row>
     <row r="24" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -5216,7 +5275,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -5284,13 +5343,13 @@
     </row>
     <row r="25" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -5370,10 +5429,10 @@
     </row>
     <row r="26" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>41</v>
@@ -5456,17 +5515,17 @@
     </row>
     <row r="27" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -5542,17 +5601,17 @@
     </row>
     <row r="28" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -5626,575 +5685,575 @@
       <c r="AK28" s="17"/>
       <c r="AL28" s="17"/>
     </row>
-    <row r="29" spans="1:38" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="B29" s="28" t="s">
+    <row r="29" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
+      <c r="C29" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="28">
-        <v>0</v>
-      </c>
-      <c r="R29" s="28">
-        <v>0</v>
-      </c>
-      <c r="S29" s="28">
-        <v>0</v>
-      </c>
-      <c r="T29" s="28">
-        <v>0</v>
-      </c>
-      <c r="U29" s="28">
-        <v>1</v>
-      </c>
-      <c r="V29" s="28">
-        <v>1</v>
-      </c>
-      <c r="W29" s="28">
-        <v>0</v>
-      </c>
-      <c r="X29" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="28"/>
-    </row>
-    <row r="30" spans="1:38" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="27" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>0</v>
+      </c>
+      <c r="R29" s="26">
+        <v>0</v>
+      </c>
+      <c r="S29" s="26">
+        <v>0</v>
+      </c>
+      <c r="T29" s="26">
+        <v>0</v>
+      </c>
+      <c r="U29" s="26">
+        <v>1</v>
+      </c>
+      <c r="V29" s="26">
+        <v>1</v>
+      </c>
+      <c r="W29" s="26">
+        <v>0</v>
+      </c>
+      <c r="X29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+    </row>
+    <row r="30" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="28" t="s">
+      <c r="C30" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="G30" s="27" t="s">
+      <c r="F30" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P30" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="27">
-        <v>0</v>
-      </c>
-      <c r="R30" s="27">
-        <v>0</v>
-      </c>
-      <c r="S30" s="27">
-        <v>0</v>
-      </c>
-      <c r="T30" s="27">
-        <v>0</v>
-      </c>
-      <c r="U30" s="27">
-        <v>1</v>
-      </c>
-      <c r="V30" s="27">
-        <v>1</v>
-      </c>
-      <c r="W30" s="27">
-        <v>0</v>
-      </c>
-      <c r="X30" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="P30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>0</v>
+      </c>
+      <c r="R30" s="25">
+        <v>0</v>
+      </c>
+      <c r="S30" s="25">
+        <v>0</v>
+      </c>
+      <c r="T30" s="25">
+        <v>0</v>
+      </c>
+      <c r="U30" s="25">
+        <v>1</v>
+      </c>
+      <c r="V30" s="25">
+        <v>1</v>
+      </c>
+      <c r="W30" s="25">
+        <v>0</v>
+      </c>
+      <c r="X30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P31" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="27">
-        <v>0</v>
-      </c>
-      <c r="R31" s="27">
-        <v>0</v>
-      </c>
-      <c r="S31" s="27">
-        <v>0</v>
-      </c>
-      <c r="T31" s="27">
-        <v>0</v>
-      </c>
-      <c r="U31" s="27">
-        <v>1</v>
-      </c>
-      <c r="V31" s="27">
-        <v>1</v>
-      </c>
-      <c r="W31" s="27">
-        <v>0</v>
-      </c>
-      <c r="X31" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="P31" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>0</v>
+      </c>
+      <c r="R31" s="25">
+        <v>0</v>
+      </c>
+      <c r="S31" s="25">
+        <v>0</v>
+      </c>
+      <c r="T31" s="25">
+        <v>0</v>
+      </c>
+      <c r="U31" s="25">
+        <v>1</v>
+      </c>
+      <c r="V31" s="25">
+        <v>1</v>
+      </c>
+      <c r="W31" s="25">
+        <v>0</v>
+      </c>
+      <c r="X31" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="27">
-        <v>0</v>
-      </c>
-      <c r="R32" s="27">
-        <v>0</v>
-      </c>
-      <c r="S32" s="27">
-        <v>0</v>
-      </c>
-      <c r="T32" s="27">
-        <v>0</v>
-      </c>
-      <c r="U32" s="27">
-        <v>1</v>
-      </c>
-      <c r="V32" s="27">
-        <v>1</v>
-      </c>
-      <c r="W32" s="27">
-        <v>0</v>
-      </c>
-      <c r="X32" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28" t="s">
+      <c r="P32" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>0</v>
+      </c>
+      <c r="R32" s="25">
+        <v>0</v>
+      </c>
+      <c r="S32" s="25">
+        <v>0</v>
+      </c>
+      <c r="T32" s="25">
+        <v>0</v>
+      </c>
+      <c r="U32" s="25">
+        <v>1</v>
+      </c>
+      <c r="V32" s="25">
+        <v>1</v>
+      </c>
+      <c r="W32" s="25">
+        <v>0</v>
+      </c>
+      <c r="X32" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="28">
-        <v>0</v>
-      </c>
-      <c r="R33" s="28">
-        <v>0</v>
-      </c>
-      <c r="S33" s="28">
-        <v>0</v>
-      </c>
-      <c r="T33" s="28">
-        <v>0</v>
-      </c>
-      <c r="U33" s="28">
-        <v>1</v>
-      </c>
-      <c r="V33" s="28">
-        <v>0</v>
-      </c>
-      <c r="W33" s="28">
-        <v>0</v>
-      </c>
-      <c r="X33" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-    </row>
-    <row r="34" spans="1:39" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="28" t="s">
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>0</v>
+      </c>
+      <c r="R33" s="26">
+        <v>0</v>
+      </c>
+      <c r="S33" s="26">
+        <v>0</v>
+      </c>
+      <c r="T33" s="26">
+        <v>0</v>
+      </c>
+      <c r="U33" s="26">
+        <v>1</v>
+      </c>
+      <c r="V33" s="26">
+        <v>0</v>
+      </c>
+      <c r="W33" s="26">
+        <v>0</v>
+      </c>
+      <c r="X33" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+    </row>
+    <row r="34" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="G34" s="27" t="s">
+      <c r="F34" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P34" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="27">
-        <v>0</v>
-      </c>
-      <c r="R34" s="27">
-        <v>0</v>
-      </c>
-      <c r="S34" s="27">
-        <v>0</v>
-      </c>
-      <c r="T34" s="27">
-        <v>0</v>
-      </c>
-      <c r="U34" s="27">
-        <v>1</v>
-      </c>
-      <c r="V34" s="27">
-        <v>0</v>
-      </c>
-      <c r="W34" s="27">
-        <v>0</v>
-      </c>
-      <c r="X34" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C35" s="27" t="s">
+      <c r="P34" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="25">
+        <v>0</v>
+      </c>
+      <c r="R34" s="25">
+        <v>0</v>
+      </c>
+      <c r="S34" s="25">
+        <v>0</v>
+      </c>
+      <c r="T34" s="25">
+        <v>0</v>
+      </c>
+      <c r="U34" s="25">
+        <v>1</v>
+      </c>
+      <c r="V34" s="25">
+        <v>0</v>
+      </c>
+      <c r="W34" s="25">
+        <v>0</v>
+      </c>
+      <c r="X34" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="27" t="s">
+      <c r="F35" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P35" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="27">
-        <v>0</v>
-      </c>
-      <c r="R35" s="27">
-        <v>0</v>
-      </c>
-      <c r="S35" s="27">
-        <v>0</v>
-      </c>
-      <c r="T35" s="27">
-        <v>0</v>
-      </c>
-      <c r="U35" s="27">
-        <v>1</v>
-      </c>
-      <c r="V35" s="27">
-        <v>0</v>
-      </c>
-      <c r="W35" s="27">
-        <v>0</v>
-      </c>
-      <c r="X35" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="27">
+      <c r="P35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="25">
+        <v>0</v>
+      </c>
+      <c r="R35" s="25">
+        <v>0</v>
+      </c>
+      <c r="S35" s="25">
+        <v>0</v>
+      </c>
+      <c r="T35" s="25">
+        <v>0</v>
+      </c>
+      <c r="U35" s="25">
+        <v>1</v>
+      </c>
+      <c r="V35" s="25">
+        <v>0</v>
+      </c>
+      <c r="W35" s="25">
+        <v>0</v>
+      </c>
+      <c r="X35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:39" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>26</v>
@@ -6277,10 +6336,10 @@
     </row>
     <row r="37" spans="1:39" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>35</v>
@@ -6366,7 +6425,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>26</v>
@@ -6450,10 +6509,10 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>35</v>
@@ -6546,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6560,7 +6619,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -7045,22 +7104,22 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -7128,6 +7187,595 @@
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>3</v>
+      </c>
+      <c r="L2" s="7">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>3</v>
+      </c>
+      <c r="R2" s="7">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7">
+        <v>3</v>
+      </c>
+      <c r="T2" s="7">
+        <v>3</v>
+      </c>
+      <c r="U2" s="7">
+        <v>3</v>
+      </c>
+      <c r="V2" s="7">
+        <v>3</v>
+      </c>
+      <c r="W2" s="7">
+        <v>3</v>
+      </c>
+      <c r="X2" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -11298,10 +11946,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11309,6 +11957,7 @@
     <col min="1" max="1" width="61.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -11882,479 +12531,471 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="4" t="s">
+    <row r="9" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="E9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="J9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <v>0</v>
+      </c>
+      <c r="V9" s="19">
+        <v>1</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <v>1</v>
+      </c>
+      <c r="V10" s="19">
+        <v>1</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <v>1</v>
+      </c>
+      <c r="V11" s="19">
+        <v>1</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="B12" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="E12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="J12" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>1</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0</v>
+      </c>
+      <c r="T12" s="16">
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <v>1</v>
+      </c>
+      <c r="V12" s="19">
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <v>0</v>
+      </c>
+      <c r="X12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B13" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="E13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="J13" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="P11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>0</v>
-      </c>
-      <c r="R11" s="20">
-        <v>0</v>
-      </c>
-      <c r="S11" s="20">
-        <v>0</v>
-      </c>
-      <c r="T11" s="20">
-        <v>0</v>
-      </c>
-      <c r="U11" s="20">
-        <v>0</v>
-      </c>
-      <c r="V11" s="20">
-        <v>0</v>
-      </c>
-      <c r="W11" s="20">
-        <v>0</v>
-      </c>
-      <c r="X11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <v>1</v>
+      </c>
+      <c r="V13" s="19">
+        <v>0</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B14" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="J14" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="R12" s="20">
-        <v>0</v>
-      </c>
-      <c r="S12" s="20">
-        <v>0</v>
-      </c>
-      <c r="T12" s="20">
-        <v>0</v>
-      </c>
-      <c r="U12" s="20">
-        <v>0</v>
-      </c>
-      <c r="V12" s="20">
-        <v>0</v>
-      </c>
-      <c r="W12" s="20">
-        <v>0</v>
-      </c>
-      <c r="X12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <v>0</v>
-      </c>
-      <c r="S13" s="21">
-        <v>0</v>
-      </c>
-      <c r="T13" s="21">
-        <v>0</v>
-      </c>
-      <c r="U13" s="21">
-        <v>1</v>
-      </c>
-      <c r="V13" s="21">
-        <v>0</v>
-      </c>
-      <c r="W13" s="21">
-        <v>0</v>
-      </c>
-      <c r="X13" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="P14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>0</v>
-      </c>
-      <c r="R14" s="21">
-        <v>0</v>
-      </c>
-      <c r="S14" s="21">
-        <v>0</v>
-      </c>
-      <c r="T14" s="21">
-        <v>0</v>
-      </c>
-      <c r="U14" s="21">
-        <v>1</v>
-      </c>
-      <c r="V14" s="21">
-        <v>0</v>
-      </c>
-      <c r="W14" s="21">
-        <v>0</v>
-      </c>
-      <c r="X14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="21">
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+      <c r="T14" s="16">
+        <v>0</v>
+      </c>
+      <c r="U14" s="19">
+        <v>1</v>
+      </c>
+      <c r="V14" s="19">
+        <v>1</v>
+      </c>
+      <c r="W14" s="16">
+        <v>0</v>
+      </c>
+      <c r="X14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>36</v>
+        <v>184</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="F15" s="19"/>
-      <c r="J15" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="J15" s="19"/>
       <c r="P15" s="16">
         <v>0</v>
       </c>
@@ -12374,7 +13015,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="16">
         <v>0</v>
@@ -12412,616 +13053,6 @@
       <c r="AH15" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="J16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="16">
-        <v>0</v>
-      </c>
-      <c r="S16" s="16">
-        <v>0</v>
-      </c>
-      <c r="T16" s="16">
-        <v>0</v>
-      </c>
-      <c r="U16" s="19">
-        <v>1</v>
-      </c>
-      <c r="V16" s="19">
-        <v>1</v>
-      </c>
-      <c r="W16" s="16">
-        <v>0</v>
-      </c>
-      <c r="X16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="P17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>0</v>
-      </c>
-      <c r="R17" s="16">
-        <v>0</v>
-      </c>
-      <c r="S17" s="16">
-        <v>0</v>
-      </c>
-      <c r="T17" s="16">
-        <v>0</v>
-      </c>
-      <c r="U17" s="19">
-        <v>1</v>
-      </c>
-      <c r="V17" s="19">
-        <v>1</v>
-      </c>
-      <c r="W17" s="16">
-        <v>0</v>
-      </c>
-      <c r="X17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="P18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="16">
-        <v>0</v>
-      </c>
-      <c r="R18" s="16">
-        <v>0</v>
-      </c>
-      <c r="S18" s="16">
-        <v>0</v>
-      </c>
-      <c r="T18" s="16">
-        <v>0</v>
-      </c>
-      <c r="U18" s="19">
-        <v>1</v>
-      </c>
-      <c r="V18" s="19">
-        <v>1</v>
-      </c>
-      <c r="W18" s="16">
-        <v>0</v>
-      </c>
-      <c r="X18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="J19" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>0</v>
-      </c>
-      <c r="R19" s="16">
-        <v>0</v>
-      </c>
-      <c r="S19" s="16">
-        <v>0</v>
-      </c>
-      <c r="T19" s="16">
-        <v>0</v>
-      </c>
-      <c r="U19" s="19">
-        <v>1</v>
-      </c>
-      <c r="V19" s="19">
-        <v>0</v>
-      </c>
-      <c r="W19" s="16">
-        <v>0</v>
-      </c>
-      <c r="X19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="J20" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="P20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>0</v>
-      </c>
-      <c r="R20" s="16">
-        <v>0</v>
-      </c>
-      <c r="S20" s="16">
-        <v>0</v>
-      </c>
-      <c r="T20" s="16">
-        <v>0</v>
-      </c>
-      <c r="U20" s="19">
-        <v>1</v>
-      </c>
-      <c r="V20" s="19">
-        <v>0</v>
-      </c>
-      <c r="W20" s="16">
-        <v>0</v>
-      </c>
-      <c r="X20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="J21" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>0</v>
-      </c>
-      <c r="R21" s="16">
-        <v>0</v>
-      </c>
-      <c r="S21" s="16">
-        <v>0</v>
-      </c>
-      <c r="T21" s="16">
-        <v>0</v>
-      </c>
-      <c r="U21" s="19">
-        <v>1</v>
-      </c>
-      <c r="V21" s="19">
-        <v>1</v>
-      </c>
-      <c r="W21" s="16">
-        <v>0</v>
-      </c>
-      <c r="X21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="P22" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>0</v>
-      </c>
-      <c r="R22" s="16">
-        <v>0</v>
-      </c>
-      <c r="S22" s="16">
-        <v>0</v>
-      </c>
-      <c r="T22" s="16">
-        <v>0</v>
-      </c>
-      <c r="U22" s="19">
-        <v>0</v>
-      </c>
-      <c r="V22" s="19">
-        <v>0</v>
-      </c>
-      <c r="W22" s="16">
-        <v>0</v>
-      </c>
-      <c r="X22" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="22">
-        <v>0</v>
-      </c>
-      <c r="R23" s="22">
-        <v>0</v>
-      </c>
-      <c r="S23" s="22">
-        <v>0</v>
-      </c>
-      <c r="T23" s="22">
-        <v>0</v>
-      </c>
-      <c r="U23" s="19">
-        <v>1</v>
-      </c>
-      <c r="V23" s="19">
-        <v>1</v>
-      </c>
-      <c r="W23" s="22">
-        <v>0</v>
-      </c>
-      <c r="X23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -13045,7 +13076,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -13530,20 +13561,20 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -13552,7 +13583,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -13625,23 +13656,23 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>26</v>
@@ -13716,193 +13747,193 @@
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
     </row>
-    <row r="10" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="23" t="s">
+    <row r="10" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>0</v>
-      </c>
-      <c r="R10" s="23">
-        <v>0</v>
-      </c>
-      <c r="S10" s="23">
-        <v>0</v>
-      </c>
-      <c r="T10" s="23">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
-        <v>1</v>
-      </c>
-      <c r="V10" s="23">
-        <v>1</v>
-      </c>
-      <c r="W10" s="23">
-        <v>0</v>
-      </c>
-      <c r="X10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="24"/>
-    </row>
-    <row r="11" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>0</v>
-      </c>
-      <c r="R11" s="23">
-        <v>0</v>
-      </c>
-      <c r="S11" s="23">
-        <v>0</v>
-      </c>
-      <c r="T11" s="23">
-        <v>0</v>
-      </c>
-      <c r="U11" s="23">
-        <v>1</v>
-      </c>
-      <c r="V11" s="23">
-        <v>1</v>
-      </c>
-      <c r="W11" s="23">
-        <v>0</v>
-      </c>
-      <c r="X11" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="24"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0</v>
+      </c>
+      <c r="R10" s="21">
+        <v>0</v>
+      </c>
+      <c r="S10" s="21">
+        <v>0</v>
+      </c>
+      <c r="T10" s="21">
+        <v>0</v>
+      </c>
+      <c r="U10" s="21">
+        <v>1</v>
+      </c>
+      <c r="V10" s="21">
+        <v>1</v>
+      </c>
+      <c r="W10" s="21">
+        <v>0</v>
+      </c>
+      <c r="X10" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="22"/>
+    </row>
+    <row r="11" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>0</v>
+      </c>
+      <c r="R11" s="21">
+        <v>0</v>
+      </c>
+      <c r="S11" s="21">
+        <v>0</v>
+      </c>
+      <c r="T11" s="21">
+        <v>0</v>
+      </c>
+      <c r="U11" s="21">
+        <v>1</v>
+      </c>
+      <c r="V11" s="21">
+        <v>1</v>
+      </c>
+      <c r="W11" s="21">
+        <v>0</v>
+      </c>
+      <c r="X11" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="22"/>
     </row>
     <row r="12" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -13979,17 +14010,17 @@
     </row>
     <row r="13" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -14066,13 +14097,13 @@
     </row>
     <row r="14" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
@@ -14153,23 +14184,23 @@
     </row>
     <row r="15" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
         <v>164</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -14242,266 +14273,266 @@
       <c r="AL15" s="16"/>
       <c r="AM15" s="17"/>
     </row>
-    <row r="16" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>0</v>
-      </c>
-      <c r="R16" s="23">
-        <v>0</v>
-      </c>
-      <c r="S16" s="23">
-        <v>0</v>
-      </c>
-      <c r="T16" s="23">
-        <v>0</v>
-      </c>
-      <c r="U16" s="23">
-        <v>1</v>
-      </c>
-      <c r="V16" s="23">
-        <v>1</v>
-      </c>
-      <c r="W16" s="23">
-        <v>0</v>
-      </c>
-      <c r="X16" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="24"/>
-    </row>
-    <row r="17" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="23" t="s">
+    <row r="16" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0</v>
+      </c>
+      <c r="R16" s="21">
+        <v>0</v>
+      </c>
+      <c r="S16" s="21">
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
+        <v>0</v>
+      </c>
+      <c r="U16" s="21">
+        <v>1</v>
+      </c>
+      <c r="V16" s="21">
+        <v>1</v>
+      </c>
+      <c r="W16" s="21">
+        <v>0</v>
+      </c>
+      <c r="X16" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="22"/>
+    </row>
+    <row r="17" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>0</v>
-      </c>
-      <c r="R17" s="23">
-        <v>0</v>
-      </c>
-      <c r="S17" s="23">
-        <v>0</v>
-      </c>
-      <c r="T17" s="23">
-        <v>0</v>
-      </c>
-      <c r="U17" s="23">
-        <v>1</v>
-      </c>
-      <c r="V17" s="23">
-        <v>1</v>
-      </c>
-      <c r="W17" s="23">
-        <v>0</v>
-      </c>
-      <c r="X17" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="24"/>
-    </row>
-    <row r="18" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="23">
-        <v>0</v>
-      </c>
-      <c r="R18" s="23">
-        <v>0</v>
-      </c>
-      <c r="S18" s="23">
-        <v>0</v>
-      </c>
-      <c r="T18" s="23">
-        <v>0</v>
-      </c>
-      <c r="U18" s="23">
-        <v>1</v>
-      </c>
-      <c r="V18" s="23">
-        <v>1</v>
-      </c>
-      <c r="W18" s="23">
-        <v>0</v>
-      </c>
-      <c r="X18" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="24"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>0</v>
+      </c>
+      <c r="R17" s="21">
+        <v>0</v>
+      </c>
+      <c r="S17" s="21">
+        <v>0</v>
+      </c>
+      <c r="T17" s="21">
+        <v>0</v>
+      </c>
+      <c r="U17" s="21">
+        <v>1</v>
+      </c>
+      <c r="V17" s="21">
+        <v>1</v>
+      </c>
+      <c r="W17" s="21">
+        <v>0</v>
+      </c>
+      <c r="X17" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="22"/>
+    </row>
+    <row r="18" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0</v>
+      </c>
+      <c r="R18" s="21">
+        <v>0</v>
+      </c>
+      <c r="S18" s="21">
+        <v>0</v>
+      </c>
+      <c r="T18" s="21">
+        <v>0</v>
+      </c>
+      <c r="U18" s="21">
+        <v>1</v>
+      </c>
+      <c r="V18" s="21">
+        <v>1</v>
+      </c>
+      <c r="W18" s="21">
+        <v>0</v>
+      </c>
+      <c r="X18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -14525,7 +14556,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -15010,19 +15041,19 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -15093,13 +15124,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="P9" s="20">
         <v>0</v>
@@ -15161,13 +15192,13 @@
     </row>
     <row r="10" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>36</v>
@@ -15232,13 +15263,13 @@
     </row>
     <row r="11" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>76</v>
@@ -15303,13 +15334,13 @@
     </row>
     <row r="12" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>36</v>
@@ -15374,10 +15405,10 @@
     </row>
     <row r="13" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>167</v>
@@ -15445,16 +15476,16 @@
     </row>
     <row r="14" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="P14" s="20">
         <v>0</v>
@@ -15516,16 +15547,16 @@
     </row>
     <row r="15" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="P15" s="20">
         <v>0</v>
@@ -15587,13 +15618,13 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>55</v>
@@ -15658,13 +15689,13 @@
     </row>
     <row r="17" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>126</v>
@@ -15729,13 +15760,13 @@
     </row>
     <row r="18" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>291</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>312</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>126</v>
@@ -15800,13 +15831,13 @@
     </row>
     <row r="19" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>55</v>
@@ -15871,13 +15902,13 @@
     </row>
     <row r="20" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>126</v>
@@ -15942,13 +15973,13 @@
     </row>
     <row r="21" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>126</v>
@@ -16030,7 +16061,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -16513,95 +16544,95 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="F8" s="26" t="s">
+    <row r="8" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>1</v>
-      </c>
-      <c r="R8" s="26">
-        <v>0</v>
-      </c>
-      <c r="S8" s="26">
-        <v>0</v>
-      </c>
-      <c r="T8" s="26">
+      <c r="P8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>1</v>
+      </c>
+      <c r="R8" s="24">
+        <v>0</v>
+      </c>
+      <c r="S8" s="24">
+        <v>0</v>
+      </c>
+      <c r="T8" s="24">
         <v>2</v>
       </c>
-      <c r="U8" s="26">
-        <v>0</v>
-      </c>
-      <c r="V8" s="26">
-        <v>1</v>
-      </c>
-      <c r="W8" s="26">
-        <v>0</v>
-      </c>
-      <c r="X8" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="26">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="26">
+      <c r="U8" s="24">
+        <v>0</v>
+      </c>
+      <c r="V8" s="24">
+        <v>1</v>
+      </c>
+      <c r="W8" s="24">
+        <v>0</v>
+      </c>
+      <c r="X8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
@@ -16669,16 +16700,16 @@
     </row>
     <row r="10" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="P10" s="20">
         <v>0</v>
@@ -16740,13 +16771,13 @@
     </row>
     <row r="11" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>36</v>
@@ -16811,16 +16842,16 @@
     </row>
     <row r="12" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="P12" s="20">
         <v>0</v>
@@ -16882,13 +16913,13 @@
     </row>
     <row r="13" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>55</v>
@@ -16953,13 +16984,13 @@
     </row>
     <row r="14" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>36</v>
@@ -17024,13 +17055,13 @@
     </row>
     <row r="15" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>36</v>
@@ -17098,16 +17129,16 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="P16" s="20">
         <v>0</v>
@@ -17169,13 +17200,13 @@
     </row>
     <row r="17" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>55</v>
@@ -17240,22 +17271,22 @@
     </row>
     <row r="18" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P18" s="20">
         <v>0</v>
@@ -17315,148 +17346,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="P19" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="28">
-        <v>0</v>
-      </c>
-      <c r="R19" s="28">
-        <v>0</v>
-      </c>
-      <c r="S19" s="28">
-        <v>0</v>
-      </c>
-      <c r="T19" s="28">
-        <v>0</v>
-      </c>
-      <c r="U19" s="28">
-        <v>0</v>
-      </c>
-      <c r="V19" s="28">
-        <v>1</v>
-      </c>
-      <c r="W19" s="28">
-        <v>0</v>
-      </c>
-      <c r="X19" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="P20" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>0</v>
-      </c>
-      <c r="R20" s="28">
-        <v>0</v>
-      </c>
-      <c r="S20" s="28">
-        <v>0</v>
-      </c>
-      <c r="T20" s="28">
-        <v>0</v>
-      </c>
-      <c r="U20" s="28">
-        <v>0</v>
-      </c>
-      <c r="V20" s="28">
-        <v>1</v>
-      </c>
-      <c r="W20" s="28">
-        <v>0</v>
-      </c>
-      <c r="X20" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="28">
+    <row r="19" spans="1:34" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="26">
+        <v>0</v>
+      </c>
+      <c r="R19" s="26">
+        <v>0</v>
+      </c>
+      <c r="S19" s="26">
+        <v>0</v>
+      </c>
+      <c r="T19" s="26">
+        <v>0</v>
+      </c>
+      <c r="U19" s="26">
+        <v>0</v>
+      </c>
+      <c r="V19" s="26">
+        <v>1</v>
+      </c>
+      <c r="W19" s="26">
+        <v>0</v>
+      </c>
+      <c r="X19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="P20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>0</v>
+      </c>
+      <c r="R20" s="26">
+        <v>0</v>
+      </c>
+      <c r="S20" s="26">
+        <v>0</v>
+      </c>
+      <c r="T20" s="26">
+        <v>0</v>
+      </c>
+      <c r="U20" s="26">
+        <v>0</v>
+      </c>
+      <c r="V20" s="26">
+        <v>1</v>
+      </c>
+      <c r="W20" s="26">
+        <v>0</v>
+      </c>
+      <c r="X20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="26">
         <v>0</v>
       </c>
     </row>

--- a/_resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="0" windowWidth="26310" windowHeight="13065" activeTab="10"/>
+    <workbookView xWindow="6210" yWindow="0" windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="frame" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1490,7 +1490,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="341">
   <si>
     <t>类名称</t>
   </si>
@@ -2849,6 +2849,14 @@
   <si>
     <t>xml=payclass</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3536,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3545,6 +3553,7 @@
     <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -7196,7 +7205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11949,7 +11958,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12689,7 +12698,7 @@
         <v>174</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>25</v>
@@ -12992,7 +13001,7 @@
         <v>184</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>126</v>
+        <v>339</v>
       </c>
       <c r="F15" s="19"/>
       <c r="J15" s="19"/>
@@ -13057,7 +13066,8 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/_resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="0" windowWidth="26310" windowHeight="13065"/>
+    <workbookView xWindow="6210" yWindow="0" windowWidth="26310" windowHeight="13065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="frame" sheetId="9" r:id="rId1"/>
@@ -1490,7 +1490,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="319">
   <si>
     <t>类名称</t>
   </si>
@@ -2046,15 +2046,9 @@
     <t>签到时间(服务器使用)</t>
   </si>
   <si>
-    <t>signintime</t>
-  </si>
-  <si>
     <t>连续签到次数</t>
   </si>
   <si>
-    <t>continuoussignin</t>
-  </si>
-  <si>
     <t>xml=taskclass</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2071,10 +2065,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>record</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Task</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2092,10 +2082,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2170,33 +2156,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>刷新商店列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>商品id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2221,99 +2180,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>uint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Goods</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次刷新时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新次数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>refresh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoodsData</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoodsData</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2856,6 +2727,14 @@
   </si>
   <si>
     <t>conditions</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>signtime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuoussign</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3544,7 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -3558,7 +3437,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -4043,13 +3922,13 @@
     </row>
     <row r="8" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>25</v>
@@ -4120,7 +3999,7 @@
     </row>
     <row r="9" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -4296,13 +4175,13 @@
     </row>
     <row r="11" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
@@ -4367,13 +4246,13 @@
     </row>
     <row r="12" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>126</v>
@@ -4438,13 +4317,13 @@
     </row>
     <row r="13" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>36</v>
@@ -4509,13 +4388,13 @@
     </row>
     <row r="14" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>126</v>
@@ -4580,13 +4459,13 @@
     </row>
     <row r="15" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>126</v>
@@ -4651,13 +4530,13 @@
     </row>
     <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>126</v>
@@ -4722,13 +4601,13 @@
     </row>
     <row r="17" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>126</v>
@@ -4793,13 +4672,13 @@
     </row>
     <row r="18" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>126</v>
@@ -4864,19 +4743,19 @@
     </row>
     <row r="19" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>26</v>
@@ -4947,7 +4826,7 @@
     </row>
     <row r="20" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>27</v>
@@ -4959,7 +4838,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>26</v>
@@ -5030,19 +4909,19 @@
     </row>
     <row r="21" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -5104,19 +4983,19 @@
     </row>
     <row r="22" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="P22" s="4">
         <v>0</v>
@@ -5178,10 +5057,10 @@
     </row>
     <row r="23" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>26</v>
@@ -5264,13 +5143,13 @@
     </row>
     <row r="24" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -5284,7 +5163,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -5352,13 +5231,13 @@
     </row>
     <row r="25" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -5438,10 +5317,10 @@
     </row>
     <row r="26" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>41</v>
@@ -5524,17 +5403,17 @@
     </row>
     <row r="27" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -5610,17 +5489,17 @@
     </row>
     <row r="28" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -5696,13 +5575,13 @@
     </row>
     <row r="29" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
@@ -5788,13 +5667,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>26</v>
@@ -5865,10 +5744,10 @@
     </row>
     <row r="31" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>26</v>
@@ -5936,10 +5815,10 @@
     </row>
     <row r="32" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>35</v>
@@ -6007,13 +5886,13 @@
     </row>
     <row r="33" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
@@ -6093,19 +5972,19 @@
     </row>
     <row r="34" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>26</v>
@@ -6176,10 +6055,10 @@
     </row>
     <row r="35" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>123</v>
@@ -6188,7 +6067,7 @@
         <v>28</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>26</v>
@@ -6259,10 +6138,10 @@
     </row>
     <row r="36" spans="1:39" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>26</v>
@@ -6345,10 +6224,10 @@
     </row>
     <row r="37" spans="1:39" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>35</v>
@@ -6434,7 +6313,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>26</v>
@@ -6518,10 +6397,10 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>35</v>
@@ -6628,7 +6507,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -7113,22 +6992,22 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -7217,7 +7096,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -7702,22 +7581,22 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -11168,7 +11047,7 @@
   <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11812,7 +11691,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>126</v>
@@ -11877,13 +11756,13 @@
     </row>
     <row r="11" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>36</v>
@@ -11971,7 +11850,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -12456,19 +12335,19 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -12477,10 +12356,10 @@
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -12542,10 +12421,10 @@
     </row>
     <row r="9" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>26</v>
@@ -12620,7 +12499,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>41</v>
@@ -12695,10 +12574,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>25</v>
@@ -12767,20 +12646,20 @@
     </row>
     <row r="12" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P12" s="16">
         <v>0</v>
@@ -12842,20 +12721,20 @@
     </row>
     <row r="13" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P13" s="16">
         <v>0</v>
@@ -12917,10 +12796,10 @@
     </row>
     <row r="14" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>132</v>
@@ -12930,7 +12809,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="J14" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P14" s="16">
         <v>0</v>
@@ -12992,16 +12871,16 @@
     </row>
     <row r="15" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="F15" s="19"/>
       <c r="J15" s="19"/>
@@ -13073,10 +12952,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13086,7 +12965,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -13571,20 +13450,20 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -13593,7 +13472,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -13664,112 +13543,106 @@
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="4" t="s">
+    <row r="9" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
-      <c r="V9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>0</v>
+      </c>
+      <c r="R9" s="21">
+        <v>0</v>
+      </c>
+      <c r="S9" s="21">
+        <v>0</v>
+      </c>
+      <c r="T9" s="21">
+        <v>0</v>
+      </c>
+      <c r="U9" s="21">
+        <v>1</v>
+      </c>
+      <c r="V9" s="21">
+        <v>1</v>
+      </c>
+      <c r="W9" s="21">
+        <v>0</v>
+      </c>
+      <c r="X9" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="22"/>
     </row>
     <row r="10" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -13843,706 +13716,6 @@
       <c r="AK10" s="21"/>
       <c r="AL10" s="21"/>
       <c r="AM10" s="22"/>
-    </row>
-    <row r="11" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>0</v>
-      </c>
-      <c r="R11" s="21">
-        <v>0</v>
-      </c>
-      <c r="S11" s="21">
-        <v>0</v>
-      </c>
-      <c r="T11" s="21">
-        <v>0</v>
-      </c>
-      <c r="U11" s="21">
-        <v>1</v>
-      </c>
-      <c r="V11" s="21">
-        <v>1</v>
-      </c>
-      <c r="W11" s="21">
-        <v>0</v>
-      </c>
-      <c r="X11" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="22"/>
-    </row>
-    <row r="12" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>0</v>
-      </c>
-      <c r="R12" s="16">
-        <v>0</v>
-      </c>
-      <c r="S12" s="16">
-        <v>0</v>
-      </c>
-      <c r="T12" s="16">
-        <v>0</v>
-      </c>
-      <c r="U12" s="16">
-        <v>1</v>
-      </c>
-      <c r="V12" s="16">
-        <v>1</v>
-      </c>
-      <c r="W12" s="16">
-        <v>0</v>
-      </c>
-      <c r="X12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="17"/>
-    </row>
-    <row r="13" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>0</v>
-      </c>
-      <c r="R13" s="16">
-        <v>0</v>
-      </c>
-      <c r="S13" s="16">
-        <v>0</v>
-      </c>
-      <c r="T13" s="16">
-        <v>0</v>
-      </c>
-      <c r="U13" s="16">
-        <v>1</v>
-      </c>
-      <c r="V13" s="16">
-        <v>1</v>
-      </c>
-      <c r="W13" s="16">
-        <v>0</v>
-      </c>
-      <c r="X13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="17"/>
-    </row>
-    <row r="14" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>0</v>
-      </c>
-      <c r="R14" s="16">
-        <v>0</v>
-      </c>
-      <c r="S14" s="16">
-        <v>0</v>
-      </c>
-      <c r="T14" s="16">
-        <v>0</v>
-      </c>
-      <c r="U14" s="16">
-        <v>1</v>
-      </c>
-      <c r="V14" s="16">
-        <v>1</v>
-      </c>
-      <c r="W14" s="16">
-        <v>0</v>
-      </c>
-      <c r="X14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="17"/>
-    </row>
-    <row r="15" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>0</v>
-      </c>
-      <c r="R15" s="16">
-        <v>0</v>
-      </c>
-      <c r="S15" s="16">
-        <v>0</v>
-      </c>
-      <c r="T15" s="16">
-        <v>0</v>
-      </c>
-      <c r="U15" s="16">
-        <v>1</v>
-      </c>
-      <c r="V15" s="16">
-        <v>1</v>
-      </c>
-      <c r="W15" s="16">
-        <v>0</v>
-      </c>
-      <c r="X15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="17"/>
-    </row>
-    <row r="16" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>0</v>
-      </c>
-      <c r="R16" s="21">
-        <v>0</v>
-      </c>
-      <c r="S16" s="21">
-        <v>0</v>
-      </c>
-      <c r="T16" s="21">
-        <v>0</v>
-      </c>
-      <c r="U16" s="21">
-        <v>1</v>
-      </c>
-      <c r="V16" s="21">
-        <v>1</v>
-      </c>
-      <c r="W16" s="21">
-        <v>0</v>
-      </c>
-      <c r="X16" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="22"/>
-    </row>
-    <row r="17" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>0</v>
-      </c>
-      <c r="R17" s="21">
-        <v>0</v>
-      </c>
-      <c r="S17" s="21">
-        <v>0</v>
-      </c>
-      <c r="T17" s="21">
-        <v>0</v>
-      </c>
-      <c r="U17" s="21">
-        <v>1</v>
-      </c>
-      <c r="V17" s="21">
-        <v>1</v>
-      </c>
-      <c r="W17" s="21">
-        <v>0</v>
-      </c>
-      <c r="X17" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="22"/>
-    </row>
-    <row r="18" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>0</v>
-      </c>
-      <c r="R18" s="21">
-        <v>0</v>
-      </c>
-      <c r="S18" s="21">
-        <v>0</v>
-      </c>
-      <c r="T18" s="21">
-        <v>0</v>
-      </c>
-      <c r="U18" s="21">
-        <v>1</v>
-      </c>
-      <c r="V18" s="21">
-        <v>1</v>
-      </c>
-      <c r="W18" s="21">
-        <v>0</v>
-      </c>
-      <c r="X18" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -14566,7 +13739,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -15051,19 +14224,19 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -15134,13 +14307,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="P9" s="20">
         <v>0</v>
@@ -15202,13 +14375,13 @@
     </row>
     <row r="10" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>36</v>
@@ -15273,13 +14446,13 @@
     </row>
     <row r="11" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>76</v>
@@ -15344,13 +14517,13 @@
     </row>
     <row r="12" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>36</v>
@@ -15415,13 +14588,13 @@
     </row>
     <row r="13" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>36</v>
@@ -15486,16 +14659,16 @@
     </row>
     <row r="14" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="P14" s="20">
         <v>0</v>
@@ -15557,16 +14730,16 @@
     </row>
     <row r="15" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="P15" s="20">
         <v>0</v>
@@ -15628,13 +14801,13 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>55</v>
@@ -15699,13 +14872,13 @@
     </row>
     <row r="17" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>126</v>
@@ -15770,13 +14943,13 @@
     </row>
     <row r="18" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>126</v>
@@ -15841,13 +15014,13 @@
     </row>
     <row r="19" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>55</v>
@@ -15912,13 +15085,13 @@
     </row>
     <row r="20" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>126</v>
@@ -15983,13 +15156,13 @@
     </row>
     <row r="21" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>126</v>
@@ -16071,7 +15244,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -16556,16 +15729,16 @@
     </row>
     <row r="8" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>94</v>
@@ -16633,16 +15806,16 @@
     </row>
     <row r="9" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
@@ -16710,16 +15883,16 @@
     </row>
     <row r="10" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P10" s="20">
         <v>0</v>
@@ -16781,13 +15954,13 @@
     </row>
     <row r="11" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>36</v>
@@ -16852,16 +16025,16 @@
     </row>
     <row r="12" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="P12" s="20">
         <v>0</v>
@@ -16923,13 +16096,13 @@
     </row>
     <row r="13" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>55</v>
@@ -16994,13 +16167,13 @@
     </row>
     <row r="14" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>36</v>
@@ -17065,13 +16238,13 @@
     </row>
     <row r="15" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>36</v>
@@ -17139,16 +16312,16 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="P16" s="20">
         <v>0</v>
@@ -17210,13 +16383,13 @@
     </row>
     <row r="17" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>55</v>
@@ -17281,22 +16454,22 @@
     </row>
     <row r="18" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P18" s="20">
         <v>0</v>
@@ -17358,16 +16531,16 @@
     </row>
     <row r="19" spans="1:34" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P19" s="26">
         <v>0</v>
@@ -17429,19 +16602,19 @@
     </row>
     <row r="20" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="P20" s="26">
         <v>0</v>

--- a/_resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="0" windowWidth="26310" windowHeight="13065" activeTab="6"/>
+    <workbookView xWindow="6210" yWindow="0" windowWidth="26310" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="frame" sheetId="9" r:id="rId1"/>
@@ -706,6 +706,54 @@
       </text>
     </comment>
     <comment ref="O8" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否使用固定格式索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+背包最大数量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1490,7 +1538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="332">
   <si>
     <t>类名称</t>
   </si>
@@ -1933,9 +1981,6 @@
     <t>道具背包</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -1976,9 +2021,6 @@
   </si>
   <si>
     <t>usecount</t>
-  </si>
-  <si>
-    <t>道具在背包中的位置索引</t>
   </si>
   <si>
     <t>index</t>
@@ -2735,6 +2777,66 @@
   </si>
   <si>
     <t>continuoussign</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具背包</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具在普通页签的位置索引</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具在礼包页签的位置索引</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具在材料页签的位置索引</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具在装备页签的位置索引</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具在主页签的位置索引</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具在药品页签的位置索引</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicine</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3437,7 +3539,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -3922,13 +4024,13 @@
     </row>
     <row r="8" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>192</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>194</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>25</v>
@@ -3999,7 +4101,7 @@
     </row>
     <row r="9" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -4009,7 +4111,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4085,20 +4187,20 @@
     </row>
     <row r="10" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>26</v>
@@ -4175,13 +4277,13 @@
     </row>
     <row r="11" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
@@ -4246,16 +4348,16 @@
     </row>
     <row r="12" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P12" s="4">
         <v>0</v>
@@ -4317,13 +4419,13 @@
     </row>
     <row r="13" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>36</v>
@@ -4388,16 +4490,16 @@
     </row>
     <row r="14" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P14" s="4">
         <v>0</v>
@@ -4459,16 +4561,16 @@
     </row>
     <row r="15" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P15" s="4">
         <v>0</v>
@@ -4530,16 +4632,16 @@
     </row>
     <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P16" s="4">
         <v>0</v>
@@ -4601,16 +4703,16 @@
     </row>
     <row r="17" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P17" s="4">
         <v>0</v>
@@ -4672,16 +4774,16 @@
     </row>
     <row r="18" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P18" s="4">
         <v>0</v>
@@ -4743,19 +4845,19 @@
     </row>
     <row r="19" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>26</v>
@@ -4826,19 +4928,19 @@
     </row>
     <row r="20" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>26</v>
@@ -4909,19 +5011,19 @@
     </row>
     <row r="21" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -4983,19 +5085,19 @@
     </row>
     <row r="22" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P22" s="4">
         <v>0</v>
@@ -5057,17 +5159,17 @@
     </row>
     <row r="23" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -5143,13 +5245,13 @@
     </row>
     <row r="24" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>223</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -5163,7 +5265,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -5231,13 +5333,13 @@
     </row>
     <row r="25" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -5317,10 +5419,10 @@
     </row>
     <row r="26" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>41</v>
@@ -5403,17 +5505,17 @@
     </row>
     <row r="27" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -5489,17 +5591,17 @@
     </row>
     <row r="28" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -5575,13 +5677,13 @@
     </row>
     <row r="29" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
@@ -5667,13 +5769,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>26</v>
@@ -5744,10 +5846,10 @@
     </row>
     <row r="31" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>26</v>
@@ -5815,10 +5917,10 @@
     </row>
     <row r="32" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>35</v>
@@ -5886,13 +5988,13 @@
     </row>
     <row r="33" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>235</v>
-      </c>
       <c r="C33" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
@@ -5972,19 +6074,19 @@
     </row>
     <row r="34" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>26</v>
@@ -6055,19 +6157,19 @@
     </row>
     <row r="35" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>26</v>
@@ -6138,10 +6240,10 @@
     </row>
     <row r="36" spans="1:39" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>26</v>
@@ -6224,17 +6326,17 @@
     </row>
     <row r="37" spans="1:39" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -6313,7 +6415,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>26</v>
@@ -6397,17 +6499,17 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
@@ -6507,7 +6609,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -6992,22 +7094,22 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -7096,7 +7198,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -7581,22 +7683,22 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -8504,10 +8606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8515,6 +8617,16 @@
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
@@ -9113,32 +9225,34 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>317</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -9210,112 +9324,124 @@
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>0</v>
-      </c>
-      <c r="R9" s="15">
-        <v>0</v>
-      </c>
-      <c r="S9" s="15">
-        <v>0</v>
-      </c>
-      <c r="T9" s="15">
-        <v>0</v>
-      </c>
-      <c r="U9" s="15">
-        <v>0</v>
-      </c>
-      <c r="V9" s="15">
-        <v>1</v>
-      </c>
-      <c r="W9" s="15">
-        <v>0</v>
-      </c>
-      <c r="X9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>100</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>128</v>
-      </c>
+      <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -9325,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="15">
         <v>0</v>
@@ -9337,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="15">
         <v>1</v>
@@ -9385,13 +9511,13 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
@@ -9402,7 +9528,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -9473,24 +9599,24 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -9501,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="15">
         <v>0</v>
@@ -9561,23 +9687,25 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -9647,13 +9775,13 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
@@ -9731,10 +9859,527 @@
       <c r="AK14" s="15"/>
       <c r="AL14" s="15"/>
     </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="15">
+        <v>0</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>1</v>
+      </c>
+      <c r="V16" s="15">
+        <v>1</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+      <c r="X16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <v>1</v>
+      </c>
+      <c r="V17" s="15">
+        <v>1</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>1</v>
+      </c>
+      <c r="V18" s="15">
+        <v>1</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A19" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>1</v>
+      </c>
+      <c r="V19" s="15">
+        <v>1</v>
+      </c>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>1</v>
+      </c>
+      <c r="V20" s="15">
+        <v>1</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9755,7 +10400,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -10240,20 +10885,20 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -10333,20 +10978,20 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>26</v>
@@ -10429,14 +11074,14 @@
         <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -10513,20 +11158,20 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>26</v>
@@ -10602,17 +11247,17 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -10692,14 +11337,14 @@
         <v>26</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -10776,20 +11421,20 @@
     </row>
     <row r="14" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>145</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>26</v>
@@ -10863,17 +11508,17 @@
     </row>
     <row r="15" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -10950,13 +11595,13 @@
     </row>
     <row r="16" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
@@ -11058,7 +11703,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -11543,13 +12188,13 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>36</v>
@@ -11614,13 +12259,13 @@
     </row>
     <row r="9" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>36</v>
@@ -11685,16 +12330,16 @@
     </row>
     <row r="10" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P10" s="4">
         <v>0</v>
@@ -11756,13 +12401,13 @@
     </row>
     <row r="11" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>36</v>
@@ -11850,7 +12495,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -12335,19 +12980,19 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -12356,10 +13001,10 @@
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -12421,10 +13066,10 @@
     </row>
     <row r="9" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>26</v>
@@ -12499,7 +13144,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>41</v>
@@ -12574,10 +13219,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>25</v>
@@ -12646,20 +13291,20 @@
     </row>
     <row r="12" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P12" s="16">
         <v>0</v>
@@ -12721,20 +13366,20 @@
     </row>
     <row r="13" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P13" s="16">
         <v>0</v>
@@ -12796,20 +13441,20 @@
     </row>
     <row r="14" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="19"/>
       <c r="J14" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P14" s="16">
         <v>0</v>
@@ -12871,16 +13516,16 @@
     </row>
     <row r="15" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F15" s="19"/>
       <c r="J15" s="19"/>
@@ -12954,7 +13599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -12965,7 +13610,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -13450,20 +14095,20 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -13472,7 +14117,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -13545,17 +14190,17 @@
     </row>
     <row r="9" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -13632,17 +14277,17 @@
     </row>
     <row r="10" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>191</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -13739,7 +14384,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -14224,19 +14869,19 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -14307,13 +14952,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P9" s="20">
         <v>0</v>
@@ -14375,13 +15020,13 @@
     </row>
     <row r="10" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>36</v>
@@ -14446,13 +15091,13 @@
     </row>
     <row r="11" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>76</v>
@@ -14517,13 +15162,13 @@
     </row>
     <row r="12" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>36</v>
@@ -14588,13 +15233,13 @@
     </row>
     <row r="13" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>36</v>
@@ -14659,16 +15304,16 @@
     </row>
     <row r="14" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>258</v>
       </c>
       <c r="P14" s="20">
         <v>0</v>
@@ -14730,16 +15375,16 @@
     </row>
     <row r="15" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P15" s="20">
         <v>0</v>
@@ -14801,13 +15446,13 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>261</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>263</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>55</v>
@@ -14872,16 +15517,16 @@
     </row>
     <row r="17" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P17" s="20">
         <v>0</v>
@@ -14943,16 +15588,16 @@
     </row>
     <row r="18" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P18" s="20">
         <v>0</v>
@@ -15014,13 +15659,13 @@
     </row>
     <row r="19" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>55</v>
@@ -15085,16 +15730,16 @@
     </row>
     <row r="20" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P20" s="20">
         <v>0</v>
@@ -15156,16 +15801,16 @@
     </row>
     <row r="21" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P21" s="20">
         <v>0</v>
@@ -15244,7 +15889,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -15729,16 +16374,16 @@
     </row>
     <row r="8" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>279</v>
-      </c>
       <c r="E8" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>94</v>
@@ -15806,16 +16451,16 @@
     </row>
     <row r="9" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
@@ -15883,16 +16528,16 @@
     </row>
     <row r="10" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P10" s="20">
         <v>0</v>
@@ -15954,13 +16599,13 @@
     </row>
     <row r="11" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>36</v>
@@ -16025,16 +16670,16 @@
     </row>
     <row r="12" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P12" s="20">
         <v>0</v>
@@ -16096,13 +16741,13 @@
     </row>
     <row r="13" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>55</v>
@@ -16167,13 +16812,13 @@
     </row>
     <row r="14" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>36</v>
@@ -16238,13 +16883,13 @@
     </row>
     <row r="15" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>36</v>
@@ -16312,16 +16957,16 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P16" s="20">
         <v>0</v>
@@ -16383,13 +17028,13 @@
     </row>
     <row r="17" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>55</v>
@@ -16454,22 +17099,22 @@
     </row>
     <row r="18" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>303</v>
-      </c>
       <c r="G18" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P18" s="20">
         <v>0</v>
@@ -16531,16 +17176,16 @@
     </row>
     <row r="19" spans="1:34" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P19" s="26">
         <v>0</v>
@@ -16602,19 +17247,19 @@
     </row>
     <row r="20" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>305</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>307</v>
       </c>
       <c r="P20" s="26">
         <v>0</v>
